--- a/汽柴煤油2.0/eta/结算价_聚丙烯指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/结算价_聚丙烯指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>6602.6694</v>
+        <v>7007.2862</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6645.9167</v>
+        <v>6651.9286</v>
       </c>
       <c r="C3" t="n">
-        <v>6659.8382</v>
+        <v>6712.7702</v>
       </c>
     </row>
     <row r="4">
